--- a/StructureDefinition-ext-R5-CoverageEligibilityResponse.error.xlsx
+++ b/StructureDefinition-ext-R5-CoverageEligibilityResponse.error.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The error codes for adjudication processing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-adjudication-error-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -814,8 +805,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.2109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1731,31 +1722,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1767,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1775,13 +1766,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1806,16 +1797,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1884,7 +1875,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1987,7 +1978,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2092,7 +2083,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2135,7 +2126,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2197,7 +2188,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2226,13 +2217,13 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2282,7 +2273,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2294,7 +2285,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2407,10 +2398,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2433,13 +2424,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2490,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2502,7 +2493,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>120</v>
